--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3192280.122446334</v>
+        <v>3189936.696478724</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7426985.783662932</v>
+        <v>7426985.783662939</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>523756.6288615816</v>
+        <v>523756.628861582</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.20662970553738</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17.99873387173292</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,64 +747,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="Y3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,67 +817,67 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="R4" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="W4" t="n">
         <v>9.977552361264268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="E4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,70 +893,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.92549025883184</v>
+        <v>12.68669557114269</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F5" t="n">
+      <c r="W5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,58 +981,58 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G6" t="n">
-        <v>34.11888750173132</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,52 +1057,52 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F7" t="n">
+      <c r="S7" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,70 +1136,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>12.68669557114268</v>
       </c>
     </row>
     <row r="9">
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="D9" t="n">
+      <c r="V9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E9" t="n">
+      <c r="W9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,70 +1291,70 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D10" t="n">
+      <c r="S10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>9.977552361264268</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>357.4429391919027</v>
       </c>
       <c r="G11" t="n">
-        <v>361.6923977633136</v>
+        <v>361.6923977633145</v>
       </c>
       <c r="H11" t="n">
         <v>247.2616060358452</v>
@@ -1537,10 +1537,10 @@
         <v>97.00085609676049</v>
       </c>
       <c r="F13" t="n">
-        <v>56.02098303443371</v>
+        <v>95.98794147312256</v>
       </c>
       <c r="G13" t="n">
-        <v>116.6841098006161</v>
+        <v>76.71715136192721</v>
       </c>
       <c r="H13" t="n">
         <v>96.13460939529217</v>
@@ -1616,7 +1616,7 @@
         <v>332.4972635224531</v>
       </c>
       <c r="F14" t="n">
-        <v>357.4429391919027</v>
+        <v>357.4429391919037</v>
       </c>
       <c r="G14" t="n">
         <v>361.6923977633136</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.39826144557058</v>
+        <v>64.39826144557071</v>
       </c>
       <c r="T14" t="n">
         <v>155.3769046725118</v>
@@ -1771,7 +1771,7 @@
         <v>99.18236646840367</v>
       </c>
       <c r="E16" t="n">
-        <v>97.00085609676049</v>
+        <v>57.03389765807162</v>
       </c>
       <c r="F16" t="n">
         <v>95.98794147312256</v>
@@ -1783,7 +1783,7 @@
         <v>96.13460939529217</v>
       </c>
       <c r="I16" t="n">
-        <v>9.701246024429</v>
+        <v>49.66820446311786</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>99.18236646840367</v>
       </c>
       <c r="E19" t="n">
-        <v>97.00085609676049</v>
+        <v>57.03389765807162</v>
       </c>
       <c r="F19" t="n">
         <v>95.98794147312256</v>
@@ -2020,7 +2020,7 @@
         <v>96.13460939529217</v>
       </c>
       <c r="I19" t="n">
-        <v>9.701246024429</v>
+        <v>49.66820446311786</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>116.6841098006161</v>
       </c>
       <c r="H22" t="n">
-        <v>96.13460939529217</v>
+        <v>56.16765095660331</v>
       </c>
       <c r="I22" t="n">
-        <v>9.701246024428986</v>
+        <v>49.66820446311786</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>96.13460939529217</v>
       </c>
       <c r="I25" t="n">
-        <v>9.701246024428986</v>
+        <v>9.701246024429</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>72.88595605765659</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>38.30659749577084</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S28" t="n">
         <v>191.3620190696887</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S31" t="n">
-        <v>84.41599494540795</v>
+        <v>191.3620190696887</v>
       </c>
       <c r="T31" t="n">
         <v>219.9395111212271</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>77.05927066592834</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S34" t="n">
         <v>191.3620190696887</v>
@@ -3241,10 +3241,10 @@
         <v>219.9395111212271</v>
       </c>
       <c r="U34" t="n">
-        <v>179.2707999772265</v>
+        <v>286.2168241015072</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>122.1186066811347</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.1255043131223</v>
+        <v>411.125504313121</v>
       </c>
       <c r="H35" t="n">
         <v>296.6947125856539</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25.72143841246141</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.88595605765641</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S37" t="n">
         <v>191.3620190696887</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,10 +3518,10 @@
         <v>411.1255043131223</v>
       </c>
       <c r="H38" t="n">
-        <v>296.6947125856535</v>
+        <v>296.6947125856539</v>
       </c>
       <c r="I38" t="n">
-        <v>49.43310654980868</v>
+        <v>49.43310654980737</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.88595605765659</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.5677159451009</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>59.28662287762291</v>
       </c>
       <c r="S40" t="n">
         <v>191.3620190696887</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9395111212271</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2168241015072</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.1172163504247</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S43" t="n">
         <v>191.3620190696887</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.9395111212271</v>
       </c>
       <c r="U43" t="n">
-        <v>233.0930947480288</v>
+        <v>286.2168241015072</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>18.5964363755191</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>411.1255043131223</v>
       </c>
       <c r="H44" t="n">
-        <v>296.6947125856535</v>
+        <v>296.6947125856539</v>
       </c>
       <c r="I44" t="n">
         <v>49.43310654980868</v>
@@ -4028,7 +4028,7 @@
         <v>113.8313679953794</v>
       </c>
       <c r="T44" t="n">
-        <v>204.8100112223205</v>
+        <v>204.8100112223197</v>
       </c>
       <c r="U44" t="n">
         <v>251.0114742516755</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.59643637551908</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.88595605765659</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>93.04219285229505</v>
       </c>
       <c r="S46" t="n">
         <v>191.3620190696887</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4316,34 +4316,34 @@
         <v>68.2764642733967</v>
       </c>
       <c r="F2" t="n">
-        <v>30.69401002537914</v>
+        <v>61.33096352419322</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2366994040306</v>
+        <v>21.34724942132394</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,10 +4352,10 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
+        <v>148.2438924791353</v>
+      </c>
+      <c r="S2" t="n">
         <v>108.260178376266</v>
-      </c>
-      <c r="S2" t="n">
-        <v>68.2764642733967</v>
       </c>
       <c r="T2" t="n">
         <v>68.2764642733967</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
         <v>3.166710156947247</v>
@@ -4410,22 +4410,22 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="O3" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="P3" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O3" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="P3" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4434,25 +4434,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>148.2571721289136</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>108.2734580260443</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>68.28974392317502</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>55.62015482801871</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>94.80819302024089</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>133.9962312124631</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.3355078473624</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R4" t="n">
-        <v>158.3355078473624</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S4" t="n">
-        <v>158.3355078473624</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T4" t="n">
-        <v>158.3355078473624</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U4" t="n">
-        <v>158.3355078473624</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V4" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W4" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X4" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D5" t="n">
-        <v>135.1878417126385</v>
+        <v>25.56952152749925</v>
       </c>
       <c r="E5" t="n">
-        <v>95.20412760976917</v>
+        <v>25.56952152749925</v>
       </c>
       <c r="F5" t="n">
-        <v>55.22041350689989</v>
+        <v>18.62402077829578</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4574,43 +4574,43 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4674,22 +4674,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
         <v>3.166710156947247</v>
@@ -4747,28 +4747,28 @@
         <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U7" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V7" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W7" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.2438924791353</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="C8" t="n">
-        <v>148.2438924791353</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="D8" t="n">
-        <v>123.1178524655551</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="E8" t="n">
-        <v>83.13413836268582</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="F8" t="n">
+        <v>58.60773488116507</v>
+      </c>
+      <c r="G8" t="n">
         <v>43.15042425981653</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.166710156947247</v>
-      </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
         <v>3.166710156947247</v>
@@ -4805,49 +4805,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N8" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O8" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2438924791353</v>
+        <v>65.55323563036855</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
         <v>3.166710156947247</v>
@@ -4887,16 +4887,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M9" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="N9" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P9" t="n">
         <v>158.3355078473624</v>
@@ -4905,28 +4905,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
         <v>3.166710156947247</v>
@@ -4984,28 +4984,28 @@
         <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U10" t="n">
-        <v>93.21247408113457</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V10" t="n">
-        <v>93.21247408113457</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W10" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.976921243781</v>
+        <v>2019.976921243783</v>
       </c>
       <c r="C11" t="n">
-        <v>1700.946835161762</v>
+        <v>1700.946835161764</v>
       </c>
       <c r="D11" t="n">
-        <v>1392.613567413404</v>
+        <v>1392.613567413406</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.757745673553</v>
+        <v>1056.757745673554</v>
       </c>
       <c r="F11" t="n">
-        <v>695.7042717423376</v>
+        <v>695.7042717423392</v>
       </c>
       <c r="G11" t="n">
-        <v>330.3584154157584</v>
+        <v>330.3584154157588</v>
       </c>
       <c r="H11" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="I11" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J11" t="n">
-        <v>252.3558439328719</v>
+        <v>419.761492953225</v>
       </c>
       <c r="K11" t="n">
-        <v>881.4169804851206</v>
+        <v>965.5103979338851</v>
       </c>
       <c r="L11" t="n">
-        <v>1300.614970906197</v>
+        <v>1384.708388354961</v>
       </c>
       <c r="M11" t="n">
-        <v>1798.722943499292</v>
+        <v>1882.816360948056</v>
       </c>
       <c r="N11" t="n">
-        <v>2309.504632223629</v>
+        <v>2393.598049672393</v>
       </c>
       <c r="O11" t="n">
-        <v>3155.478215025249</v>
+        <v>2862.579453023895</v>
       </c>
       <c r="P11" t="n">
-        <v>3521.241991658561</v>
+        <v>3546.923950746976</v>
       </c>
       <c r="Q11" t="n">
-        <v>3918.55715287474</v>
+        <v>3983.616408548994</v>
       </c>
       <c r="R11" t="n">
-        <v>4029.960869987678</v>
+        <v>4029.960869987679</v>
       </c>
       <c r="S11" t="n">
-        <v>3964.912121052757</v>
+        <v>3964.912121052759</v>
       </c>
       <c r="T11" t="n">
-        <v>3807.965752696685</v>
+        <v>3807.965752696686</v>
       </c>
       <c r="U11" t="n">
-        <v>3604.351239866516</v>
+        <v>3604.351239866518</v>
       </c>
       <c r="V11" t="n">
-        <v>3323.220783381338</v>
+        <v>3323.22078338134</v>
       </c>
       <c r="W11" t="n">
-        <v>3020.384558969617</v>
+        <v>3020.384558969618</v>
       </c>
       <c r="X11" t="n">
-        <v>2696.85123156693</v>
+        <v>2696.851231566931</v>
       </c>
       <c r="Y11" t="n">
-        <v>2356.644330449511</v>
+        <v>2356.644330449512</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>184.7358675793212</v>
       </c>
       <c r="H12" t="n">
-        <v>93.1703249287672</v>
+        <v>93.17032492876722</v>
       </c>
       <c r="I12" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J12" t="n">
-        <v>288.9085655422038</v>
+        <v>164.0784405551991</v>
       </c>
       <c r="K12" t="n">
-        <v>509.7426790148205</v>
+        <v>384.9125540278158</v>
       </c>
       <c r="L12" t="n">
-        <v>853.0039383561901</v>
+        <v>728.1738133691854</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.930505592207</v>
+        <v>1148.100380605202</v>
       </c>
       <c r="N12" t="n">
-        <v>1718.379924448209</v>
+        <v>1593.549799461204</v>
       </c>
       <c r="O12" t="n">
-        <v>2142.480091363482</v>
+        <v>1978.829196907946</v>
       </c>
       <c r="P12" t="n">
-        <v>2432.367708402896</v>
+        <v>2268.71681394736</v>
       </c>
       <c r="Q12" t="n">
         <v>2576.230706997509</v>
@@ -5185,7 +5185,7 @@
         <v>402.3243756759756</v>
       </c>
       <c r="F13" t="n">
-        <v>345.7375241260426</v>
+        <v>305.3668590364579</v>
       </c>
       <c r="G13" t="n">
         <v>227.8747869537031</v>
@@ -5194,7 +5194,7 @@
         <v>130.7691208978524</v>
       </c>
       <c r="I13" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J13" t="n">
         <v>168.2626987898822</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2019.976921243782</v>
+        <v>2019.976921243783</v>
       </c>
       <c r="C14" t="n">
-        <v>1700.946835161763</v>
+        <v>1700.946835161764</v>
       </c>
       <c r="D14" t="n">
-        <v>1392.613567413405</v>
+        <v>1392.613567413406</v>
       </c>
       <c r="E14" t="n">
-        <v>1056.757745673553</v>
+        <v>1056.757745673554</v>
       </c>
       <c r="F14" t="n">
         <v>695.7042717423383</v>
@@ -5270,58 +5270,58 @@
         <v>330.3584154157588</v>
       </c>
       <c r="H14" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="I14" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J14" t="n">
         <v>419.761492953225</v>
       </c>
       <c r="K14" t="n">
-        <v>727.9186710600204</v>
+        <v>851.1176638557886</v>
       </c>
       <c r="L14" t="n">
-        <v>1147.116661481097</v>
+        <v>1270.315654276865</v>
       </c>
       <c r="M14" t="n">
-        <v>1645.224634074192</v>
+        <v>1768.42362686996</v>
       </c>
       <c r="N14" t="n">
-        <v>2156.006322798528</v>
+        <v>2712.178770762161</v>
       </c>
       <c r="O14" t="n">
-        <v>2797.520197349642</v>
+        <v>3181.160174113663</v>
       </c>
       <c r="P14" t="n">
-        <v>3481.864695072722</v>
+        <v>3546.923950746976</v>
       </c>
       <c r="Q14" t="n">
-        <v>3918.55715287474</v>
+        <v>3983.616408548994</v>
       </c>
       <c r="R14" t="n">
-        <v>4029.960869987678</v>
+        <v>4029.960869987679</v>
       </c>
       <c r="S14" t="n">
-        <v>3964.912121052758</v>
+        <v>3964.912121052759</v>
       </c>
       <c r="T14" t="n">
-        <v>3807.965752696685</v>
+        <v>3807.965752696686</v>
       </c>
       <c r="U14" t="n">
-        <v>3604.351239866517</v>
+        <v>3604.351239866518</v>
       </c>
       <c r="V14" t="n">
-        <v>3323.220783381339</v>
+        <v>3323.22078338134</v>
       </c>
       <c r="W14" t="n">
-        <v>3020.384558969617</v>
+        <v>3020.384558969618</v>
       </c>
       <c r="X14" t="n">
-        <v>2696.85123156693</v>
+        <v>2696.851231566931</v>
       </c>
       <c r="Y14" t="n">
-        <v>2356.644330449511</v>
+        <v>2356.644330449512</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>184.7358675793212</v>
       </c>
       <c r="H15" t="n">
-        <v>93.1703249287672</v>
+        <v>93.17032492876722</v>
       </c>
       <c r="I15" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J15" t="n">
-        <v>288.9085655422038</v>
+        <v>164.0784405551991</v>
       </c>
       <c r="K15" t="n">
-        <v>548.563448483352</v>
+        <v>384.9125540278158</v>
       </c>
       <c r="L15" t="n">
         <v>891.8247078247216</v>
@@ -5419,19 +5419,19 @@
         <v>500.3050383999761</v>
       </c>
       <c r="E16" t="n">
-        <v>402.3243756759756</v>
+        <v>442.6950407655603</v>
       </c>
       <c r="F16" t="n">
-        <v>305.3668590364579</v>
+        <v>345.7375241260426</v>
       </c>
       <c r="G16" t="n">
-        <v>187.5041218641184</v>
+        <v>227.8747869537031</v>
       </c>
       <c r="H16" t="n">
-        <v>90.3984558082677</v>
+        <v>130.7691208978524</v>
       </c>
       <c r="I16" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J16" t="n">
         <v>168.2626987898822</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2019.976921243782</v>
+        <v>2019.976921243783</v>
       </c>
       <c r="C17" t="n">
-        <v>1700.946835161763</v>
+        <v>1700.946835161764</v>
       </c>
       <c r="D17" t="n">
-        <v>1392.613567413405</v>
+        <v>1392.613567413406</v>
       </c>
       <c r="E17" t="n">
-        <v>1056.757745673553</v>
+        <v>1056.757745673554</v>
       </c>
       <c r="F17" t="n">
-        <v>695.7042717423383</v>
+        <v>695.7042717423392</v>
       </c>
       <c r="G17" t="n">
-        <v>330.3584154157589</v>
+        <v>330.3584154157597</v>
       </c>
       <c r="H17" t="n">
-        <v>80.5992173997536</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="I17" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J17" t="n">
         <v>419.761492953225</v>
       </c>
       <c r="K17" t="n">
-        <v>727.9186710600204</v>
+        <v>1048.822629505474</v>
       </c>
       <c r="L17" t="n">
-        <v>1147.116661481097</v>
+        <v>1468.02061992655</v>
       </c>
       <c r="M17" t="n">
-        <v>1645.224634074192</v>
+        <v>2411.146990677549</v>
       </c>
       <c r="N17" t="n">
-        <v>2156.006322798528</v>
+        <v>2921.928679401886</v>
       </c>
       <c r="O17" t="n">
-        <v>2862.579453023895</v>
+        <v>3391.352014866969</v>
       </c>
       <c r="P17" t="n">
-        <v>3546.923950746975</v>
+        <v>3757.115791500281</v>
       </c>
       <c r="Q17" t="n">
-        <v>3983.616408548993</v>
+        <v>3983.616408548994</v>
       </c>
       <c r="R17" t="n">
-        <v>4029.960869987678</v>
+        <v>4029.960869987679</v>
       </c>
       <c r="S17" t="n">
-        <v>3964.912121052758</v>
+        <v>3964.912121052757</v>
       </c>
       <c r="T17" t="n">
-        <v>3807.965752696685</v>
+        <v>3807.965752696686</v>
       </c>
       <c r="U17" t="n">
-        <v>3604.351239866517</v>
+        <v>3604.351239866518</v>
       </c>
       <c r="V17" t="n">
-        <v>3323.220783381339</v>
+        <v>3323.22078338134</v>
       </c>
       <c r="W17" t="n">
-        <v>3020.384558969617</v>
+        <v>3020.384558969618</v>
       </c>
       <c r="X17" t="n">
-        <v>2696.85123156693</v>
+        <v>2696.851231566931</v>
       </c>
       <c r="Y17" t="n">
-        <v>2356.644330449511</v>
+        <v>2356.644330449512</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>184.7358675793212</v>
       </c>
       <c r="H18" t="n">
-        <v>93.1703249287672</v>
+        <v>93.17032492876722</v>
       </c>
       <c r="I18" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J18" t="n">
-        <v>288.9085655422038</v>
+        <v>288.9085655422039</v>
       </c>
       <c r="K18" t="n">
         <v>548.563448483352</v>
@@ -5656,19 +5656,19 @@
         <v>500.3050383999761</v>
       </c>
       <c r="E19" t="n">
-        <v>402.3243756759756</v>
+        <v>442.6950407655603</v>
       </c>
       <c r="F19" t="n">
-        <v>305.3668590364579</v>
+        <v>345.7375241260426</v>
       </c>
       <c r="G19" t="n">
-        <v>187.5041218641184</v>
+        <v>227.8747869537031</v>
       </c>
       <c r="H19" t="n">
-        <v>90.3984558082677</v>
+        <v>130.7691208978524</v>
       </c>
       <c r="I19" t="n">
-        <v>80.59921739975356</v>
+        <v>80.59921739975357</v>
       </c>
       <c r="J19" t="n">
         <v>168.2626987898822</v>
@@ -5738,10 +5738,10 @@
         <v>1056.757745673553</v>
       </c>
       <c r="F20" t="n">
-        <v>695.7042717423385</v>
+        <v>695.7042717423387</v>
       </c>
       <c r="G20" t="n">
-        <v>330.3584154157589</v>
+        <v>330.3584154157593</v>
       </c>
       <c r="H20" t="n">
         <v>80.59921739975357</v>
@@ -5750,28 +5750,28 @@
         <v>80.59921739975357</v>
       </c>
       <c r="J20" t="n">
-        <v>419.761492953225</v>
+        <v>252.355843932872</v>
       </c>
       <c r="K20" t="n">
-        <v>900.4511422596329</v>
+        <v>798.710059237073</v>
       </c>
       <c r="L20" t="n">
-        <v>1319.649132680709</v>
+        <v>1217.908049658149</v>
       </c>
       <c r="M20" t="n">
-        <v>1817.757105273804</v>
+        <v>1716.016022251244</v>
       </c>
       <c r="N20" t="n">
-        <v>2328.538793998141</v>
+        <v>2226.797710975581</v>
       </c>
       <c r="O20" t="n">
-        <v>2797.520197349643</v>
+        <v>3072.771293777201</v>
       </c>
       <c r="P20" t="n">
-        <v>3481.864695072723</v>
+        <v>3757.115791500281</v>
       </c>
       <c r="Q20" t="n">
-        <v>3918.557152874741</v>
+        <v>3983.616408548994</v>
       </c>
       <c r="R20" t="n">
         <v>4029.960869987679</v>
@@ -5786,7 +5786,7 @@
         <v>3604.351239866518</v>
       </c>
       <c r="V20" t="n">
-        <v>3323.22078338134</v>
+        <v>3323.220783381339</v>
       </c>
       <c r="W20" t="n">
         <v>3020.384558969618</v>
@@ -5829,13 +5829,13 @@
         <v>80.59921739975357</v>
       </c>
       <c r="J21" t="n">
-        <v>288.9085655422039</v>
+        <v>164.0784405551991</v>
       </c>
       <c r="K21" t="n">
-        <v>548.563448483352</v>
+        <v>384.9125540278158</v>
       </c>
       <c r="L21" t="n">
-        <v>891.8247078247216</v>
+        <v>728.1738133691854</v>
       </c>
       <c r="M21" t="n">
         <v>1311.751275060738</v>
@@ -5902,7 +5902,7 @@
         <v>187.5041218641184</v>
       </c>
       <c r="H22" t="n">
-        <v>90.3984558082677</v>
+        <v>130.7691208978524</v>
       </c>
       <c r="I22" t="n">
         <v>80.59921739975357</v>
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2019.976921243783</v>
+        <v>2019.976921243782</v>
       </c>
       <c r="C23" t="n">
-        <v>1700.946835161764</v>
+        <v>1700.946835161763</v>
       </c>
       <c r="D23" t="n">
-        <v>1392.613567413406</v>
+        <v>1392.613567413405</v>
       </c>
       <c r="E23" t="n">
         <v>1056.757745673554</v>
       </c>
       <c r="F23" t="n">
-        <v>695.7042717423392</v>
+        <v>695.7042717423387</v>
       </c>
       <c r="G23" t="n">
-        <v>330.3584154157598</v>
+        <v>330.3584154157593</v>
       </c>
       <c r="H23" t="n">
-        <v>80.59921739975451</v>
+        <v>80.59921739975356</v>
       </c>
       <c r="I23" t="n">
-        <v>80.59921739975357</v>
+        <v>80.59921739975356</v>
       </c>
       <c r="J23" t="n">
-        <v>419.761492953225</v>
+        <v>376.1601470521801</v>
       </c>
       <c r="K23" t="n">
-        <v>727.9186710600204</v>
+        <v>684.3173251589756</v>
       </c>
       <c r="L23" t="n">
-        <v>1147.116661481097</v>
+        <v>1103.515315580052</v>
       </c>
       <c r="M23" t="n">
-        <v>1645.224634074192</v>
+        <v>1601.623288173147</v>
       </c>
       <c r="N23" t="n">
-        <v>2156.006322798528</v>
+        <v>2545.378432065348</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.520197349643</v>
+        <v>3391.352014866968</v>
       </c>
       <c r="P23" t="n">
-        <v>3481.864695072723</v>
+        <v>3757.11579150028</v>
       </c>
       <c r="Q23" t="n">
-        <v>3918.557152874741</v>
+        <v>3983.616408548993</v>
       </c>
       <c r="R23" t="n">
-        <v>4029.960869987679</v>
+        <v>4029.960869987678</v>
       </c>
       <c r="S23" t="n">
-        <v>3964.912121052759</v>
+        <v>3964.912121052758</v>
       </c>
       <c r="T23" t="n">
-        <v>3807.965752696686</v>
+        <v>3807.965752696685</v>
       </c>
       <c r="U23" t="n">
         <v>3604.351239866518</v>
@@ -6029,10 +6029,10 @@
         <v>3020.384558969618</v>
       </c>
       <c r="X23" t="n">
-        <v>2696.851231566931</v>
+        <v>2696.85123156693</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.644330449512</v>
+        <v>2356.644330449511</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>184.7358675793212</v>
       </c>
       <c r="H24" t="n">
-        <v>93.17032492876722</v>
+        <v>93.1703249287672</v>
       </c>
       <c r="I24" t="n">
-        <v>80.59921739975357</v>
+        <v>80.59921739975356</v>
       </c>
       <c r="J24" t="n">
-        <v>288.9085655422039</v>
+        <v>164.0784405551991</v>
       </c>
       <c r="K24" t="n">
-        <v>548.563448483352</v>
+        <v>384.9125540278158</v>
       </c>
       <c r="L24" t="n">
-        <v>891.8247078247216</v>
+        <v>728.1738133691854</v>
       </c>
       <c r="M24" t="n">
-        <v>1311.751275060738</v>
+        <v>1148.100380605202</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.20069391674</v>
+        <v>1593.549799461204</v>
       </c>
       <c r="O24" t="n">
-        <v>2142.480091363482</v>
+        <v>1978.829196907946</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.367708402896</v>
+        <v>2268.71681394736</v>
       </c>
       <c r="Q24" t="n">
         <v>2576.230706997509</v>
@@ -6142,7 +6142,7 @@
         <v>90.3984558082677</v>
       </c>
       <c r="I25" t="n">
-        <v>80.59921739975357</v>
+        <v>80.59921739975356</v>
       </c>
       <c r="J25" t="n">
         <v>168.2626987898822</v>
@@ -6224,28 +6224,28 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J26" t="n">
-        <v>435.0469309711003</v>
+        <v>267.6412819507473</v>
       </c>
       <c r="K26" t="n">
-        <v>1064.108067523349</v>
+        <v>575.7984600575428</v>
       </c>
       <c r="L26" t="n">
-        <v>1483.306057944425</v>
+        <v>994.996450478619</v>
       </c>
       <c r="M26" t="n">
-        <v>1981.41403053752</v>
+        <v>1938.122821229618</v>
       </c>
       <c r="N26" t="n">
-        <v>2925.169174429721</v>
+        <v>2780.87777111604</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.142757231341</v>
+        <v>3626.85135391766</v>
       </c>
       <c r="P26" t="n">
-        <v>4246.136595966488</v>
+        <v>4311.19585164074</v>
       </c>
       <c r="Q26" t="n">
-        <v>4682.829053768506</v>
+        <v>4747.888309442758</v>
       </c>
       <c r="R26" t="n">
         <v>4794.232770881443</v>
@@ -6303,25 +6303,25 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J27" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730744</v>
       </c>
       <c r="K27" t="n">
-        <v>563.8488865012271</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L27" t="n">
-        <v>907.1101458425967</v>
+        <v>743.4592513870607</v>
       </c>
       <c r="M27" t="n">
-        <v>1327.036713078613</v>
+        <v>1163.385818623077</v>
       </c>
       <c r="N27" t="n">
-        <v>1772.486131934616</v>
+        <v>1608.83523747908</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.765529381357</v>
+        <v>1994.114634925821</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.653146420771</v>
+        <v>2284.002251965235</v>
       </c>
       <c r="Q27" t="n">
         <v>2591.516145015384</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.5068332536456</v>
+        <v>303.5143711695467</v>
       </c>
       <c r="C28" t="n">
-        <v>169.5068332536456</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="D28" t="n">
-        <v>169.5068332536456</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="E28" t="n">
-        <v>169.5068332536456</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="F28" t="n">
-        <v>95.88465541762886</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="G28" t="n">
-        <v>95.88465541762886</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="H28" t="n">
-        <v>95.88465541762886</v>
+        <v>134.5781882416398</v>
       </c>
       <c r="I28" t="n">
         <v>95.88465541762886</v>
@@ -6406,28 +6406,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.954615772811</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S28" t="n">
-        <v>1673.65964701555</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.498524670876</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U28" t="n">
-        <v>1162.39062153804</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V28" t="n">
-        <v>907.7061333321536</v>
+        <v>813.7241203500374</v>
       </c>
       <c r="W28" t="n">
-        <v>618.2889632951931</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="X28" t="n">
-        <v>390.2994123971757</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.5068332536456</v>
+        <v>303.5143711695467</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2384.789375270404</v>
+        <v>2384.789375270406</v>
       </c>
       <c r="C29" t="n">
-        <v>2015.826858329993</v>
+        <v>2015.826858329994</v>
       </c>
       <c r="D29" t="n">
-        <v>1657.561159723242</v>
+        <v>1657.561159723243</v>
       </c>
       <c r="E29" t="n">
-        <v>1271.772907124998</v>
+        <v>1271.772907124999</v>
       </c>
       <c r="F29" t="n">
-        <v>860.7870023353908</v>
+        <v>860.7870023353914</v>
       </c>
       <c r="G29" t="n">
         <v>445.5087151504194</v>
@@ -6461,25 +6461,25 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J29" t="n">
-        <v>435.0469309711003</v>
+        <v>267.6412819507473</v>
       </c>
       <c r="K29" t="n">
-        <v>743.2041090778957</v>
+        <v>575.7984600575428</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.886701903918</v>
+        <v>1273.955398956492</v>
       </c>
       <c r="M29" t="n">
-        <v>2519.013072654917</v>
+        <v>1772.063371549586</v>
       </c>
       <c r="N29" t="n">
-        <v>3462.768216547118</v>
+        <v>2715.818515441787</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.74961989862</v>
+        <v>3561.792098243408</v>
       </c>
       <c r="P29" t="n">
-        <v>4297.513396531933</v>
+        <v>4246.136595966488</v>
       </c>
       <c r="Q29" t="n">
         <v>4682.829053768506</v>
@@ -6488,25 +6488,25 @@
         <v>4794.232770881443</v>
       </c>
       <c r="S29" t="n">
-        <v>4679.251591088129</v>
+        <v>4679.25159108813</v>
       </c>
       <c r="T29" t="n">
-        <v>4472.372791873664</v>
+        <v>4472.372791873665</v>
       </c>
       <c r="U29" t="n">
-        <v>4218.825848185103</v>
+        <v>4218.825848185104</v>
       </c>
       <c r="V29" t="n">
-        <v>3887.762960841532</v>
+        <v>3887.762960841534</v>
       </c>
       <c r="W29" t="n">
-        <v>3534.994305571417</v>
+        <v>3534.994305571419</v>
       </c>
       <c r="X29" t="n">
-        <v>3161.528547310338</v>
+        <v>3161.528547310339</v>
       </c>
       <c r="Y29" t="n">
-        <v>2771.389215334526</v>
+        <v>2771.389215334528</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J30" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730744</v>
       </c>
       <c r="K30" t="n">
-        <v>525.6257174179148</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L30" t="n">
-        <v>868.8869767592844</v>
+        <v>743.4592513870607</v>
       </c>
       <c r="M30" t="n">
-        <v>1288.813543995301</v>
+        <v>1163.385818623077</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.262962851303</v>
+        <v>1608.83523747908</v>
       </c>
       <c r="O30" t="n">
-        <v>2119.542360298045</v>
+        <v>1994.114634925821</v>
       </c>
       <c r="P30" t="n">
-        <v>2409.429977337459</v>
+        <v>2447.653146420771</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.292975932072</v>
+        <v>2591.516145015384</v>
       </c>
       <c r="R30" t="n">
         <v>2591.516145015384</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.88465541762886</v>
+        <v>264.8208383455358</v>
       </c>
       <c r="C31" t="n">
         <v>95.88465541762886</v>
@@ -6643,28 +6643,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.954615772811</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.685934009773</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.524811665099</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.416908532264</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.732420326377</v>
+        <v>813.7241203500374</v>
       </c>
       <c r="W31" t="n">
-        <v>726.315250289416</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="X31" t="n">
-        <v>498.3256993913986</v>
+        <v>446.4693031757755</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.5331202478686</v>
+        <v>446.4693031757755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2384.789375270405</v>
+        <v>2384.789375270406</v>
       </c>
       <c r="C32" t="n">
         <v>2015.826858329994</v>
       </c>
       <c r="D32" t="n">
-        <v>1657.561159723243</v>
+        <v>1657.561159723244</v>
       </c>
       <c r="E32" t="n">
-        <v>1271.772907124999</v>
+        <v>1271.772907125</v>
       </c>
       <c r="F32" t="n">
         <v>860.7870023353914</v>
@@ -6698,19 +6698,19 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J32" t="n">
-        <v>435.0469309711003</v>
+        <v>267.6412819507473</v>
       </c>
       <c r="K32" t="n">
-        <v>1064.108067523349</v>
+        <v>896.7024185029959</v>
       </c>
       <c r="L32" t="n">
-        <v>1706.928854124356</v>
+        <v>1315.900408924072</v>
       </c>
       <c r="M32" t="n">
-        <v>2205.036826717451</v>
+        <v>2149.055550999704</v>
       </c>
       <c r="N32" t="n">
-        <v>2715.818515441787</v>
+        <v>3092.810694891905</v>
       </c>
       <c r="O32" t="n">
         <v>3561.792098243408</v>
@@ -6731,19 +6731,19 @@
         <v>4472.372791873665</v>
       </c>
       <c r="U32" t="n">
-        <v>4218.825848185103</v>
+        <v>4218.825848185104</v>
       </c>
       <c r="V32" t="n">
-        <v>3887.762960841533</v>
+        <v>3887.762960841534</v>
       </c>
       <c r="W32" t="n">
-        <v>3534.994305571418</v>
+        <v>3534.99430557142</v>
       </c>
       <c r="X32" t="n">
-        <v>3161.528547310339</v>
+        <v>3161.52854731034</v>
       </c>
       <c r="Y32" t="n">
-        <v>2771.389215334527</v>
+        <v>2771.389215334528</v>
       </c>
     </row>
     <row r="33">
@@ -6777,10 +6777,10 @@
         <v>95.88465541762886</v>
       </c>
       <c r="J33" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730744</v>
       </c>
       <c r="K33" t="n">
-        <v>563.8488865012271</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L33" t="n">
         <v>907.1101458425967</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.88465541762886</v>
+        <v>246.0012948299646</v>
       </c>
       <c r="C34" t="n">
-        <v>95.88465541762886</v>
+        <v>246.0012948299646</v>
       </c>
       <c r="D34" t="n">
         <v>95.88465541762886</v>
@@ -6880,28 +6880,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.954615772811</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S34" t="n">
-        <v>1673.65964701555</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.498524670876</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.416908532264</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.732420326377</v>
+        <v>945.0564805951822</v>
       </c>
       <c r="W34" t="n">
-        <v>726.315250289416</v>
+        <v>655.6393105582216</v>
       </c>
       <c r="X34" t="n">
-        <v>498.3256993913986</v>
+        <v>427.6497596602043</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.5331202478686</v>
+        <v>427.6497596602043</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2384.789375270406</v>
+        <v>2384.789375270404</v>
       </c>
       <c r="C35" t="n">
-        <v>2015.826858329994</v>
+        <v>2015.826858329992</v>
       </c>
       <c r="D35" t="n">
-        <v>1657.561159723243</v>
+        <v>1657.561159723242</v>
       </c>
       <c r="E35" t="n">
-        <v>1271.772907124999</v>
+        <v>1271.772907124998</v>
       </c>
       <c r="F35" t="n">
-        <v>860.7870023353917</v>
+        <v>860.7870023353901</v>
       </c>
       <c r="G35" t="n">
-        <v>445.5087151504196</v>
+        <v>445.5087151504193</v>
       </c>
       <c r="H35" t="n">
         <v>145.8170862760215</v>
       </c>
       <c r="I35" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J35" t="n">
         <v>435.0469309711003</v>
@@ -6941,46 +6941,46 @@
         <v>1064.108067523349</v>
       </c>
       <c r="L35" t="n">
-        <v>1483.306057944425</v>
+        <v>1799.76099776603</v>
       </c>
       <c r="M35" t="n">
-        <v>1981.41403053752</v>
+        <v>2742.88736851703</v>
       </c>
       <c r="N35" t="n">
-        <v>2715.818515441787</v>
+        <v>3686.642512409231</v>
       </c>
       <c r="O35" t="n">
-        <v>3561.792098243408</v>
+        <v>4155.623915760733</v>
       </c>
       <c r="P35" t="n">
-        <v>4246.136595966488</v>
+        <v>4521.387692394045</v>
       </c>
       <c r="Q35" t="n">
-        <v>4682.829053768506</v>
+        <v>4747.888309442757</v>
       </c>
       <c r="R35" t="n">
-        <v>4794.232770881443</v>
+        <v>4794.232770881442</v>
       </c>
       <c r="S35" t="n">
-        <v>4679.25159108813</v>
+        <v>4679.251591088129</v>
       </c>
       <c r="T35" t="n">
-        <v>4472.372791873665</v>
+        <v>4472.372791873664</v>
       </c>
       <c r="U35" t="n">
-        <v>4218.825848185104</v>
+        <v>4218.825848185103</v>
       </c>
       <c r="V35" t="n">
-        <v>3887.762960841534</v>
+        <v>3887.762960841532</v>
       </c>
       <c r="W35" t="n">
-        <v>3534.994305571419</v>
+        <v>3534.994305571417</v>
       </c>
       <c r="X35" t="n">
-        <v>3161.528547310339</v>
+        <v>3161.528547310338</v>
       </c>
       <c r="Y35" t="n">
-        <v>2771.389215334528</v>
+        <v>2771.389215334526</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>108.4557629466425</v>
       </c>
       <c r="I36" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J36" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730743</v>
       </c>
       <c r="K36" t="n">
-        <v>525.0281170326958</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L36" t="n">
-        <v>868.2893763740655</v>
+        <v>743.4592513870607</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.215943610082</v>
+        <v>1163.385818623077</v>
       </c>
       <c r="N36" t="n">
-        <v>1733.665362466084</v>
+        <v>1608.83523747908</v>
       </c>
       <c r="O36" t="n">
-        <v>2118.944759912826</v>
+        <v>1994.114634925821</v>
       </c>
       <c r="P36" t="n">
-        <v>2408.83237695224</v>
+        <v>2284.002251965235</v>
       </c>
       <c r="Q36" t="n">
         <v>2591.516145015384</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.88465541762886</v>
+        <v>121.865906339307</v>
       </c>
       <c r="C37" t="n">
-        <v>95.88465541762886</v>
+        <v>121.865906339307</v>
       </c>
       <c r="D37" t="n">
-        <v>95.88465541762886</v>
+        <v>121.865906339307</v>
       </c>
       <c r="E37" t="n">
-        <v>95.88465541762886</v>
+        <v>121.865906339307</v>
       </c>
       <c r="F37" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="G37" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="H37" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="I37" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J37" t="n">
         <v>134.6093613234469</v>
@@ -7117,28 +7117,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R37" t="n">
-        <v>1793.332437936795</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S37" t="n">
-        <v>1600.037469179533</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T37" t="n">
-        <v>1377.87634683486</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U37" t="n">
-        <v>1088.768443702024</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V37" t="n">
-        <v>834.0839554961369</v>
+        <v>813.7241203500374</v>
       </c>
       <c r="W37" t="n">
-        <v>544.6667854591763</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="X37" t="n">
-        <v>316.677234561159</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="Y37" t="n">
-        <v>95.88465541762886</v>
+        <v>303.5143711695467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2384.789375270405</v>
+        <v>2384.789375270404</v>
       </c>
       <c r="C38" t="n">
-        <v>2015.826858329993</v>
+        <v>2015.826858329992</v>
       </c>
       <c r="D38" t="n">
-        <v>1657.561159723243</v>
+        <v>1657.561159723242</v>
       </c>
       <c r="E38" t="n">
         <v>1271.772907124998</v>
       </c>
       <c r="F38" t="n">
-        <v>860.787002335391</v>
+        <v>860.7870023353901</v>
       </c>
       <c r="G38" t="n">
-        <v>445.5087151504189</v>
+        <v>445.508715150418</v>
       </c>
       <c r="H38" t="n">
-        <v>145.8170862760215</v>
+        <v>145.8170862760201</v>
       </c>
       <c r="I38" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J38" t="n">
-        <v>435.0469309711003</v>
+        <v>267.6412819507473</v>
       </c>
       <c r="K38" t="n">
-        <v>874.2462612983338</v>
+        <v>896.7024185029959</v>
       </c>
       <c r="L38" t="n">
-        <v>1706.928854124356</v>
+        <v>1524.509901338472</v>
       </c>
       <c r="M38" t="n">
-        <v>2205.036826717451</v>
+        <v>2467.636272089471</v>
       </c>
       <c r="N38" t="n">
-        <v>2715.818515441787</v>
+        <v>3411.391415981672</v>
       </c>
       <c r="O38" t="n">
-        <v>3561.792098243408</v>
+        <v>3880.372819333175</v>
       </c>
       <c r="P38" t="n">
-        <v>4246.136595966488</v>
+        <v>4246.136595966487</v>
       </c>
       <c r="Q38" t="n">
-        <v>4682.829053768506</v>
+        <v>4682.829053768505</v>
       </c>
       <c r="R38" t="n">
-        <v>4794.232770881443</v>
+        <v>4794.232770881442</v>
       </c>
       <c r="S38" t="n">
-        <v>4679.25159108813</v>
+        <v>4679.251591088129</v>
       </c>
       <c r="T38" t="n">
-        <v>4472.372791873665</v>
+        <v>4472.372791873664</v>
       </c>
       <c r="U38" t="n">
         <v>4218.825848185103</v>
       </c>
       <c r="V38" t="n">
-        <v>3887.762960841533</v>
+        <v>3887.762960841532</v>
       </c>
       <c r="W38" t="n">
-        <v>3534.994305571418</v>
+        <v>3534.994305571417</v>
       </c>
       <c r="X38" t="n">
-        <v>3161.528547310339</v>
+        <v>3161.528547310338</v>
       </c>
       <c r="Y38" t="n">
-        <v>2771.389215334527</v>
+        <v>2771.389215334526</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>108.4557629466425</v>
       </c>
       <c r="I39" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J39" t="n">
-        <v>179.3638785730744</v>
+        <v>304.1940035600791</v>
       </c>
       <c r="K39" t="n">
-        <v>400.1979920456911</v>
+        <v>525.0281170326957</v>
       </c>
       <c r="L39" t="n">
-        <v>743.4592513870607</v>
+        <v>907.1101458425967</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.385818623077</v>
+        <v>1327.036713078613</v>
       </c>
       <c r="N39" t="n">
-        <v>1608.83523747908</v>
+        <v>1772.486131934616</v>
       </c>
       <c r="O39" t="n">
-        <v>1994.114634925821</v>
+        <v>2157.765529381357</v>
       </c>
       <c r="P39" t="n">
-        <v>2284.002251965235</v>
+        <v>2447.653146420771</v>
       </c>
       <c r="Q39" t="n">
         <v>2591.516145015384</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.88465541762886</v>
+        <v>559.7720288421722</v>
       </c>
       <c r="C40" t="n">
-        <v>95.88465541762886</v>
+        <v>390.8358459142653</v>
       </c>
       <c r="D40" t="n">
-        <v>95.88465541762886</v>
+        <v>390.8358459142653</v>
       </c>
       <c r="E40" t="n">
-        <v>95.88465541762886</v>
+        <v>242.9227523318721</v>
       </c>
       <c r="F40" t="n">
-        <v>95.88465541762886</v>
+        <v>242.9227523318721</v>
       </c>
       <c r="G40" t="n">
-        <v>95.88465541762886</v>
+        <v>242.9227523318721</v>
       </c>
       <c r="H40" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="I40" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J40" t="n">
         <v>134.6093613234469</v>
@@ -7354,28 +7354,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.954615772811</v>
+        <v>1807.069138118647</v>
       </c>
       <c r="S40" t="n">
-        <v>1673.65964701555</v>
+        <v>1613.774169361385</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.498524670876</v>
+        <v>1613.774169361385</v>
       </c>
       <c r="U40" t="n">
-        <v>1162.39062153804</v>
+        <v>1324.66626622855</v>
       </c>
       <c r="V40" t="n">
-        <v>907.7061333321536</v>
+        <v>1069.981778022663</v>
       </c>
       <c r="W40" t="n">
-        <v>618.2889632951931</v>
+        <v>780.5646079857023</v>
       </c>
       <c r="X40" t="n">
-        <v>390.2994123971757</v>
+        <v>780.5646079857023</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.5068332536456</v>
+        <v>559.7720288421722</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1271.772907124999</v>
       </c>
       <c r="F41" t="n">
-        <v>860.7870023353912</v>
+        <v>860.7870023353917</v>
       </c>
       <c r="G41" t="n">
-        <v>445.5087151504193</v>
+        <v>445.5087151504196</v>
       </c>
       <c r="H41" t="n">
         <v>145.8170862760215</v>
       </c>
       <c r="I41" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J41" t="n">
         <v>435.0469309711003</v>
       </c>
       <c r="K41" t="n">
-        <v>1064.108067523349</v>
+        <v>743.2041090778957</v>
       </c>
       <c r="L41" t="n">
-        <v>1483.306057944425</v>
+        <v>1326.969711640703</v>
       </c>
       <c r="M41" t="n">
-        <v>1981.41403053752</v>
+        <v>2270.096082391702</v>
       </c>
       <c r="N41" t="n">
-        <v>2715.818515441787</v>
+        <v>2780.877771116039</v>
       </c>
       <c r="O41" t="n">
-        <v>3561.792098243408</v>
+        <v>3626.851353917659</v>
       </c>
       <c r="P41" t="n">
-        <v>4246.136595966488</v>
+        <v>4311.195851640739</v>
       </c>
       <c r="Q41" t="n">
-        <v>4682.829053768506</v>
+        <v>4747.888309442757</v>
       </c>
       <c r="R41" t="n">
-        <v>4794.232770881443</v>
+        <v>4794.232770881442</v>
       </c>
       <c r="S41" t="n">
-        <v>4679.25159108813</v>
+        <v>4679.251591088129</v>
       </c>
       <c r="T41" t="n">
-        <v>4472.372791873665</v>
+        <v>4472.372791873664</v>
       </c>
       <c r="U41" t="n">
         <v>4218.825848185103</v>
@@ -7485,31 +7485,31 @@
         <v>108.4557629466425</v>
       </c>
       <c r="I42" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J42" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730743</v>
       </c>
       <c r="K42" t="n">
-        <v>525.0281170326958</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L42" t="n">
-        <v>868.2893763740655</v>
+        <v>907.1101458425967</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.215943610082</v>
+        <v>1327.036713078613</v>
       </c>
       <c r="N42" t="n">
-        <v>1733.665362466084</v>
+        <v>1772.486131934616</v>
       </c>
       <c r="O42" t="n">
-        <v>2118.944759912826</v>
+        <v>2157.765529381357</v>
       </c>
       <c r="P42" t="n">
-        <v>2409.429977337459</v>
+        <v>2447.653146420771</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.292975932072</v>
+        <v>2591.516145015384</v>
       </c>
       <c r="R42" t="n">
         <v>2591.516145015384</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.6798234483609</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="C43" t="n">
-        <v>263.6798234483609</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="D43" t="n">
-        <v>263.6798234483609</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="E43" t="n">
-        <v>263.6798234483609</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="F43" t="n">
-        <v>263.6798234483609</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="G43" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="H43" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="I43" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J43" t="n">
         <v>134.6093613234469</v>
@@ -7591,28 +7591,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.954615772811</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S43" t="n">
-        <v>1673.65964701555</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T43" t="n">
-        <v>1673.65964701555</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U43" t="n">
-        <v>1438.212076562996</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V43" t="n">
-        <v>1183.527588357109</v>
+        <v>813.7241203500374</v>
       </c>
       <c r="W43" t="n">
-        <v>894.1104183201481</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="X43" t="n">
-        <v>666.1208674221308</v>
+        <v>296.3173994150595</v>
       </c>
       <c r="Y43" t="n">
-        <v>445.3282882786007</v>
+        <v>277.5331202478685</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>2384.789375270405</v>
       </c>
       <c r="C44" t="n">
-        <v>2015.826858329993</v>
+        <v>2015.826858329994</v>
       </c>
       <c r="D44" t="n">
         <v>1657.561159723243</v>
       </c>
       <c r="E44" t="n">
-        <v>1271.772907124998</v>
+        <v>1271.772907124999</v>
       </c>
       <c r="F44" t="n">
-        <v>860.787002335391</v>
+        <v>860.7870023353914</v>
       </c>
       <c r="G44" t="n">
-        <v>445.5087151504189</v>
+        <v>445.5087151504193</v>
       </c>
       <c r="H44" t="n">
         <v>145.8170862760215</v>
       </c>
       <c r="I44" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0469309711003</v>
+        <v>267.6412819507473</v>
       </c>
       <c r="K44" t="n">
-        <v>1064.108067523349</v>
+        <v>896.7024185029959</v>
       </c>
       <c r="L44" t="n">
-        <v>1483.306057944425</v>
+        <v>1416.12102100201</v>
       </c>
       <c r="M44" t="n">
-        <v>1981.41403053752</v>
+        <v>2359.247391753009</v>
       </c>
       <c r="N44" t="n">
-        <v>2715.818515441787</v>
+        <v>3303.00253564521</v>
       </c>
       <c r="O44" t="n">
-        <v>3561.792098243408</v>
+        <v>3771.983938996713</v>
       </c>
       <c r="P44" t="n">
-        <v>4246.136595966488</v>
+        <v>4456.328436719793</v>
       </c>
       <c r="Q44" t="n">
-        <v>4682.829053768506</v>
+        <v>4682.829053768505</v>
       </c>
       <c r="R44" t="n">
-        <v>4794.232770881443</v>
+        <v>4794.232770881442</v>
       </c>
       <c r="S44" t="n">
-        <v>4679.25159108813</v>
+        <v>4679.251591088129</v>
       </c>
       <c r="T44" t="n">
         <v>4472.372791873665</v>
@@ -7685,7 +7685,7 @@
         <v>3887.762960841533</v>
       </c>
       <c r="W44" t="n">
-        <v>3534.994305571418</v>
+        <v>3534.994305571419</v>
       </c>
       <c r="X44" t="n">
         <v>3161.528547310339</v>
@@ -7722,19 +7722,19 @@
         <v>108.4557629466425</v>
       </c>
       <c r="I45" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J45" t="n">
-        <v>304.1940035600791</v>
+        <v>179.3638785730743</v>
       </c>
       <c r="K45" t="n">
-        <v>563.8488865012271</v>
+        <v>400.1979920456911</v>
       </c>
       <c r="L45" t="n">
-        <v>907.1101458425967</v>
+        <v>743.4592513870607</v>
       </c>
       <c r="M45" t="n">
-        <v>1327.036713078613</v>
+        <v>1163.385818623077</v>
       </c>
       <c r="N45" t="n">
         <v>1772.486131934616</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.5068332536456</v>
+        <v>114.6689345848198</v>
       </c>
       <c r="C46" t="n">
-        <v>169.5068332536456</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="D46" t="n">
-        <v>169.5068332536456</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="E46" t="n">
-        <v>169.5068332536456</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="F46" t="n">
-        <v>169.5068332536456</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="G46" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="H46" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="I46" t="n">
-        <v>95.88465541762886</v>
+        <v>95.88465541762884</v>
       </c>
       <c r="J46" t="n">
         <v>134.6093613234469</v>
@@ -7828,28 +7828,28 @@
         <v>1866.954615772811</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.954615772811</v>
+        <v>1772.972602790695</v>
       </c>
       <c r="S46" t="n">
-        <v>1673.65964701555</v>
+        <v>1579.677634033434</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.498524670876</v>
+        <v>1357.51651168876</v>
       </c>
       <c r="U46" t="n">
-        <v>1162.39062153804</v>
+        <v>1068.408608555924</v>
       </c>
       <c r="V46" t="n">
-        <v>907.7061333321536</v>
+        <v>813.7241203500374</v>
       </c>
       <c r="W46" t="n">
-        <v>618.2889632951931</v>
+        <v>524.3069503130769</v>
       </c>
       <c r="X46" t="n">
-        <v>390.2994123971757</v>
+        <v>296.3173994150595</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.5068332536456</v>
+        <v>296.3173994150595</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,16 +8222,16 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8465,10 +8465,10 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P8" t="n">
-        <v>269.2175241529953</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>239.9916433069339</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.5399436035015</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.21289845306188</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>165.3039337934707</v>
       </c>
       <c r="R12" t="n">
         <v>6.912408111005732</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>124.4434270664324</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>174.2752234339511</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.21289845306205</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>165.303933793471</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>239.991643306933</v>
+        <v>0.4463960743240136</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>39.21289845306205</v>
+        <v>39.212898453062</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>174.2752234339519</v>
+        <v>240.6030678761672</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.212898453062</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>165.3039337934709</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>125.0548516356648</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>174.275223433952</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.212898453062</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>165.3039337934707</v>
       </c>
       <c r="R24" t="n">
         <v>6.912408111005732</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>335.3265264263483</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3333960624591</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.21289845306183</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>165.3039337934702</v>
       </c>
       <c r="R27" t="n">
         <v>6.912408111005732</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>281.7767156342148</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>160.4192325129906</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6036367527463824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>165.3039337934705</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>6.912408111005732</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>225.8816123029605</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>338.4314843257952</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.21289845306183</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>165.3039337934707</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>319.6514543652581</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>225.8816123029605</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.21289845306151</v>
+        <v>165.3039337934702</v>
       </c>
       <c r="R36" t="n">
         <v>6.912408111005732</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>132.3658103236747</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>210.7166590044445</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>39.212898453062</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.3039337934702</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>6.912408111005732</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.2299112542738</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>225.8816123029605</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>165.3039337934707</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6036367527462971</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>6.912408111005732</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>101.2329414928666</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>225.8816123029605</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.21289845306183</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>165.3039337934706</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.96695843868885</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.96695843868886</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>39.96695843868887</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.96695843868886</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>39.96695843868887</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.96695843868886</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>39.96695843868886</v>
       </c>
       <c r="I22" t="n">
-        <v>39.96695843868888</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.96695843868888</v>
+        <v>39.96695843868886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>72.53509196527466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.1172163504247</v>
@@ -24619,7 +24619,7 @@
         <v>145.5677159451009</v>
       </c>
       <c r="I28" t="n">
-        <v>99.10131101292654</v>
+        <v>60.7947135171557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.04219285229505</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>93.04219285229505</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.9460241242808</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>148.6503847231088</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>93.04219285229505</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>106.9460241242807</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>130.0190366426933</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>119.6996096104698</v>
       </c>
       <c r="G37" t="n">
         <v>166.1172163504247</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.15623679463863</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.314504061156185e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.9460241242807</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>166.1172163504247</v>
       </c>
       <c r="H40" t="n">
-        <v>145.5677159451009</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>99.10131101292654</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>93.04219285229505</v>
+        <v>33.75556997467213</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.9395111212271</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.1172163504247</v>
       </c>
       <c r="H43" t="n">
         <v>145.5677159451009</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>93.04219285229505</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9395111212271</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.12372935347838</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>199.9882169765757</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>148.6503847231087</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.23126029276816</v>
+        <v>166.1172163504247</v>
       </c>
       <c r="H46" t="n">
         <v>145.5677159451009</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>93.04219285229505</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>738074.306575579</v>
+        <v>738074.3065755792</v>
       </c>
       <c r="F2" t="n">
+        <v>738074.3065755792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>738074.3065755791</v>
+      </c>
+      <c r="H2" t="n">
         <v>738074.3065755793</v>
       </c>
-      <c r="G2" t="n">
-        <v>738074.306575579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>738074.306575579</v>
-      </c>
       <c r="I2" t="n">
-        <v>738074.306575579</v>
+        <v>738074.3065755789</v>
       </c>
       <c r="J2" t="n">
-        <v>712618.1707523128</v>
+        <v>712618.1707523133</v>
       </c>
       <c r="K2" t="n">
-        <v>712618.1707523131</v>
+        <v>712618.170752313</v>
       </c>
       <c r="L2" t="n">
-        <v>712618.1707523132</v>
+        <v>712618.1707523135</v>
       </c>
       <c r="M2" t="n">
         <v>712618.170752313</v>
       </c>
       <c r="N2" t="n">
+        <v>712618.170752313</v>
+      </c>
+      <c r="O2" t="n">
         <v>712618.1707523133</v>
       </c>
-      <c r="O2" t="n">
-        <v>712618.1707523132</v>
-      </c>
       <c r="P2" t="n">
-        <v>712618.170752313</v>
+        <v>712618.1707523136</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60348.67321316584</v>
+        <v>60348.67321316589</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>392795.5642185676</v>
       </c>
       <c r="C4" t="n">
-        <v>392795.5642185675</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="D4" t="n">
-        <v>392795.5642185675</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
         <v>77457.44409217822</v>
@@ -26430,34 +26430,34 @@
         <v>77457.44409217822</v>
       </c>
       <c r="G4" t="n">
+        <v>77457.44409217824</v>
+      </c>
+      <c r="H4" t="n">
         <v>77457.44409217822</v>
       </c>
-      <c r="H4" t="n">
-        <v>77457.44409217825</v>
-      </c>
       <c r="I4" t="n">
-        <v>77457.44409217819</v>
+        <v>77457.44409217822</v>
       </c>
       <c r="J4" t="n">
-        <v>42648.74641883289</v>
+        <v>42648.74641883287</v>
       </c>
       <c r="K4" t="n">
         <v>42648.74641883288</v>
       </c>
       <c r="L4" t="n">
-        <v>42648.74641883289</v>
+        <v>42648.74641883288</v>
       </c>
       <c r="M4" t="n">
-        <v>42648.74641883289</v>
+        <v>42648.74641883287</v>
       </c>
       <c r="N4" t="n">
+        <v>42648.74641883287</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42648.74641883286</v>
+      </c>
+      <c r="P4" t="n">
         <v>42648.7464188329</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42648.74641883289</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42648.74641883289</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>88063.2884045633</v>
+        <v>88063.28840456331</v>
       </c>
       <c r="F5" t="n">
-        <v>88063.2884045633</v>
+        <v>88063.28840456331</v>
       </c>
       <c r="G5" t="n">
-        <v>88063.2884045633</v>
+        <v>88063.28840456331</v>
       </c>
       <c r="H5" t="n">
         <v>88063.28840456331</v>
       </c>
       <c r="I5" t="n">
-        <v>88063.28840456331</v>
+        <v>88063.2884045633</v>
       </c>
       <c r="J5" t="n">
         <v>95524.42946361266</v>
@@ -26500,16 +26500,16 @@
         <v>95524.42946361266</v>
       </c>
       <c r="M5" t="n">
-        <v>95524.42946361266</v>
+        <v>95524.42946361264</v>
       </c>
       <c r="N5" t="n">
-        <v>95524.42946361266</v>
+        <v>95524.42946361264</v>
       </c>
       <c r="O5" t="n">
-        <v>95524.42946361266</v>
+        <v>95524.42946361264</v>
       </c>
       <c r="P5" t="n">
-        <v>95524.42946361266</v>
+        <v>95524.42946361264</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>310107.7289400075</v>
       </c>
       <c r="D6" t="n">
-        <v>310107.7289400077</v>
+        <v>310107.7289400075</v>
       </c>
       <c r="E6" t="n">
-        <v>-590793.8699467124</v>
+        <v>-590796.2679642185</v>
       </c>
       <c r="F6" t="n">
-        <v>572553.5740788378</v>
+        <v>572551.1760613313</v>
       </c>
       <c r="G6" t="n">
-        <v>572553.5740788374</v>
+        <v>572551.1760613312</v>
       </c>
       <c r="H6" t="n">
-        <v>572553.5740788374</v>
+        <v>572551.1760613314</v>
       </c>
       <c r="I6" t="n">
-        <v>572553.5740788375</v>
+        <v>572551.1760613309</v>
       </c>
       <c r="J6" t="n">
-        <v>514096.3216567013</v>
+        <v>514023.2121507977</v>
       </c>
       <c r="K6" t="n">
-        <v>574444.9948698676</v>
+        <v>574371.8853639632</v>
       </c>
       <c r="L6" t="n">
-        <v>574444.9948698677</v>
+        <v>574371.8853639637</v>
       </c>
       <c r="M6" t="n">
-        <v>333238.8631831636</v>
+        <v>333165.7536772594</v>
       </c>
       <c r="N6" t="n">
-        <v>574444.9948698678</v>
+        <v>574371.8853639632</v>
       </c>
       <c r="O6" t="n">
-        <v>574444.9948698677</v>
+        <v>574371.8853639635</v>
       </c>
       <c r="P6" t="n">
-        <v>574444.9948698675</v>
+        <v>574371.8853639638</v>
       </c>
     </row>
   </sheetData>
@@ -26796,19 +26796,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>1007.490217496919</v>
+        <v>1007.49021749692</v>
       </c>
       <c r="F4" t="n">
-        <v>1007.490217496919</v>
+        <v>1007.49021749692</v>
       </c>
       <c r="G4" t="n">
-        <v>1007.490217496919</v>
+        <v>1007.49021749692</v>
       </c>
       <c r="H4" t="n">
         <v>1007.49021749692</v>
       </c>
       <c r="I4" t="n">
-        <v>1007.49021749692</v>
+        <v>1007.490217496919</v>
       </c>
       <c r="J4" t="n">
         <v>1198.558192720361</v>
@@ -26820,16 +26820,16 @@
         <v>1198.558192720361</v>
       </c>
       <c r="M4" t="n">
-        <v>1198.558192720361</v>
+        <v>1198.55819272036</v>
       </c>
       <c r="N4" t="n">
-        <v>1198.558192720361</v>
+        <v>1198.55819272036</v>
       </c>
       <c r="O4" t="n">
-        <v>1198.558192720361</v>
+        <v>1198.55819272036</v>
       </c>
       <c r="P4" t="n">
-        <v>1198.558192720361</v>
+        <v>1198.55819272036</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>967.9063405350788</v>
+        <v>967.906340535079</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>230.6518521852817</v>
+        <v>230.6518521852819</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>967.9063405350788</v>
+        <v>967.906340535079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.669416036174</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>321.4760682440342</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27506,7 +27506,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27579,10 +27579,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>341.7575513618511</v>
+        <v>341.9963460495403</v>
       </c>
       <c r="E5" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2246296614793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27819,10 +27819,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>329.8082620072386</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5512430849109</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29056,7 +29056,7 @@
         <v>49.43310654980868</v>
       </c>
       <c r="I23" t="n">
-        <v>49.43310654980774</v>
+        <v>49.43310654980868</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.4915419526449</v>
+        <v>342.5881571247186</v>
       </c>
       <c r="K11" t="n">
-        <v>635.4152894467157</v>
+        <v>551.2615201824849</v>
       </c>
       <c r="L11" t="n">
         <v>423.4323135566426</v>
@@ -35422,16 +35422,16 @@
         <v>515.9410997215521</v>
       </c>
       <c r="O11" t="n">
-        <v>854.5187705066872</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P11" t="n">
-        <v>369.4583602356689</v>
+        <v>691.2570684071516</v>
       </c>
       <c r="Q11" t="n">
-        <v>401.3284456729082</v>
+        <v>441.1034927293114</v>
       </c>
       <c r="R11" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K12" t="n">
         <v>223.0647610834512</v>
@@ -35501,13 +35501,13 @@
         <v>449.9489079353561</v>
       </c>
       <c r="O12" t="n">
-        <v>428.3840069851237</v>
+        <v>389.1711085320618</v>
       </c>
       <c r="P12" t="n">
         <v>292.815774787287</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.3161601965792</v>
+        <v>310.6200939900498</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>342.5881571247186</v>
       </c>
       <c r="K14" t="n">
-        <v>311.269876875551</v>
+        <v>435.7133039419834</v>
       </c>
       <c r="L14" t="n">
         <v>423.4323135566426</v>
@@ -35656,19 +35656,19 @@
         <v>503.1393662556516</v>
       </c>
       <c r="N14" t="n">
-        <v>515.9410997215521</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O14" t="n">
-        <v>647.9938126778929</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P14" t="n">
-        <v>691.2570684071516</v>
+        <v>369.4583602356689</v>
       </c>
       <c r="Q14" t="n">
         <v>441.1034927293114</v>
       </c>
       <c r="R14" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K15" t="n">
-        <v>262.2776595365133</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L15" t="n">
-        <v>346.7285447892622</v>
+        <v>512.0324785827332</v>
       </c>
       <c r="M15" t="n">
         <v>424.1682497333499</v>
@@ -35884,25 +35884,25 @@
         <v>342.5881571247186</v>
       </c>
       <c r="K17" t="n">
-        <v>311.269876875551</v>
+        <v>635.4152894467157</v>
       </c>
       <c r="L17" t="n">
         <v>423.4323135566426</v>
       </c>
       <c r="M17" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N17" t="n">
         <v>515.9410997215521</v>
       </c>
       <c r="O17" t="n">
-        <v>713.7102325508749</v>
+        <v>474.1649853182659</v>
       </c>
       <c r="P17" t="n">
-        <v>691.2570684071516</v>
+        <v>369.4583602356689</v>
       </c>
       <c r="Q17" t="n">
-        <v>441.1034927293114</v>
+        <v>228.7885020694067</v>
       </c>
       <c r="R17" t="n">
         <v>46.81258731180236</v>
@@ -35963,7 +35963,7 @@
         <v>210.413482972172</v>
       </c>
       <c r="K18" t="n">
-        <v>262.2776595365133</v>
+        <v>262.2776595365132</v>
       </c>
       <c r="L18" t="n">
         <v>346.7285447892622</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K20" t="n">
-        <v>485.5451003095029</v>
+        <v>551.8729447517183</v>
       </c>
       <c r="L20" t="n">
         <v>423.4323135566426</v>
@@ -36133,16 +36133,16 @@
         <v>515.9410997215521</v>
       </c>
       <c r="O20" t="n">
-        <v>473.7185892439419</v>
+        <v>854.5187705066872</v>
       </c>
       <c r="P20" t="n">
         <v>691.2570684071516</v>
       </c>
       <c r="Q20" t="n">
-        <v>441.1034927293114</v>
+        <v>228.7885020694067</v>
       </c>
       <c r="R20" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K21" t="n">
-        <v>262.2776595365132</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L21" t="n">
         <v>346.7285447892622</v>
       </c>
       <c r="M21" t="n">
-        <v>424.1682497333499</v>
+        <v>589.4721835268208</v>
       </c>
       <c r="N21" t="n">
         <v>449.9489079353561</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>342.5881571247186</v>
+        <v>298.5463935883096</v>
       </c>
       <c r="K23" t="n">
         <v>311.269876875551</v>
@@ -36367,19 +36367,19 @@
         <v>503.1393662556516</v>
       </c>
       <c r="N23" t="n">
-        <v>515.9410997215521</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O23" t="n">
-        <v>647.9938126778939</v>
+        <v>854.5187705066872</v>
       </c>
       <c r="P23" t="n">
-        <v>691.2570684071516</v>
+        <v>369.4583602356689</v>
       </c>
       <c r="Q23" t="n">
-        <v>441.1034927293114</v>
+        <v>228.7885020694067</v>
       </c>
       <c r="R23" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K24" t="n">
-        <v>262.2776595365132</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L24" t="n">
         <v>346.7285447892622</v>
@@ -36455,7 +36455,7 @@
         <v>292.815774787287</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.3161601965792</v>
+        <v>310.6200939900498</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K26" t="n">
-        <v>635.4152894467157</v>
+        <v>311.269876875551</v>
       </c>
       <c r="L26" t="n">
         <v>423.4323135566426</v>
       </c>
       <c r="M26" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N26" t="n">
-        <v>953.2880241335363</v>
+        <v>851.2676261479004</v>
       </c>
       <c r="O26" t="n">
         <v>854.5187705066872</v>
       </c>
       <c r="P26" t="n">
-        <v>479.791756298128</v>
+        <v>691.2570684071516</v>
       </c>
       <c r="Q26" t="n">
         <v>441.1034927293114</v>
       </c>
       <c r="R26" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K27" t="n">
-        <v>262.2776595365131</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L27" t="n">
         <v>346.7285447892622</v>
@@ -36692,7 +36692,7 @@
         <v>292.815774787287</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.3161601965792</v>
+        <v>310.6200939900494</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K29" t="n">
         <v>311.269876875551</v>
       </c>
       <c r="L29" t="n">
-        <v>841.093528107093</v>
+        <v>705.2090291908573</v>
       </c>
       <c r="M29" t="n">
-        <v>952.6528997484841</v>
+        <v>503.1393662556516</v>
       </c>
       <c r="N29" t="n">
         <v>953.2880241335363</v>
       </c>
       <c r="O29" t="n">
-        <v>473.7185892439419</v>
+        <v>854.5187705066872</v>
       </c>
       <c r="P29" t="n">
-        <v>369.4583602356689</v>
+        <v>691.2570684071516</v>
       </c>
       <c r="Q29" t="n">
-        <v>389.2077345823973</v>
+        <v>441.1034927293114</v>
       </c>
       <c r="R29" t="n">
         <v>112.5290071847848</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K30" t="n">
-        <v>223.6683978361976</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L30" t="n">
         <v>346.7285447892622</v>
@@ -36926,13 +36926,13 @@
         <v>389.1711085320618</v>
       </c>
       <c r="P30" t="n">
-        <v>292.815774787287</v>
+        <v>458.1197085807575</v>
       </c>
       <c r="Q30" t="n">
         <v>145.3161601965792</v>
       </c>
       <c r="R30" t="n">
-        <v>38.60926170031509</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K32" t="n">
         <v>635.4152894467157</v>
       </c>
       <c r="L32" t="n">
-        <v>649.313925859603</v>
+        <v>423.4323135566426</v>
       </c>
       <c r="M32" t="n">
-        <v>503.1393662556516</v>
+        <v>841.5708505814467</v>
       </c>
       <c r="N32" t="n">
-        <v>515.9410997215521</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O32" t="n">
-        <v>854.5187705066872</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P32" t="n">
         <v>691.2570684071516</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K33" t="n">
-        <v>262.2776595365131</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L33" t="n">
-        <v>346.7285447892622</v>
+        <v>512.0324785827329</v>
       </c>
       <c r="M33" t="n">
         <v>424.1682497333499</v>
@@ -37309,25 +37309,25 @@
         <v>635.4152894467157</v>
       </c>
       <c r="L35" t="n">
-        <v>423.4323135566426</v>
+        <v>743.0837679219006</v>
       </c>
       <c r="M35" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N35" t="n">
-        <v>741.8227120245126</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O35" t="n">
-        <v>854.5187705066872</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P35" t="n">
-        <v>691.2570684071516</v>
+        <v>369.4583602356689</v>
       </c>
       <c r="Q35" t="n">
-        <v>441.1034927293114</v>
+        <v>228.7885020694067</v>
       </c>
       <c r="R35" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K36" t="n">
         <v>223.0647610834512</v>
@@ -37403,7 +37403,7 @@
         <v>292.815774787287</v>
       </c>
       <c r="Q36" t="n">
-        <v>184.5290586496407</v>
+        <v>310.6200939900494</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K38" t="n">
-        <v>443.6356871992257</v>
+        <v>635.4152894467157</v>
       </c>
       <c r="L38" t="n">
-        <v>841.093528107093</v>
+        <v>634.148972561087</v>
       </c>
       <c r="M38" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N38" t="n">
-        <v>515.9410997215521</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O38" t="n">
-        <v>854.5187705066872</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P38" t="n">
-        <v>691.2570684071516</v>
+        <v>369.4583602356689</v>
       </c>
       <c r="Q38" t="n">
         <v>441.1034927293114</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>84.32244763176314</v>
+        <v>210.413482972172</v>
       </c>
       <c r="K39" t="n">
         <v>223.0647610834512</v>
       </c>
       <c r="L39" t="n">
-        <v>346.7285447892622</v>
+        <v>385.9414432423242</v>
       </c>
       <c r="M39" t="n">
         <v>424.1682497333499</v>
@@ -37640,7 +37640,7 @@
         <v>292.815774787287</v>
       </c>
       <c r="Q39" t="n">
-        <v>310.6200939900494</v>
+        <v>145.3161601965792</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>342.5881571247186</v>
       </c>
       <c r="K41" t="n">
-        <v>635.4152894467157</v>
+        <v>311.269876875551</v>
       </c>
       <c r="L41" t="n">
-        <v>423.4323135566426</v>
+        <v>589.6622248109163</v>
       </c>
       <c r="M41" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N41" t="n">
-        <v>741.8227120245126</v>
+        <v>515.9410997215521</v>
       </c>
       <c r="O41" t="n">
         <v>854.5187705066872</v>
@@ -37801,7 +37801,7 @@
         <v>441.1034927293114</v>
       </c>
       <c r="R41" t="n">
-        <v>112.5290071847848</v>
+        <v>46.81258731180236</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K42" t="n">
         <v>223.0647610834512</v>
       </c>
       <c r="L42" t="n">
-        <v>346.7285447892622</v>
+        <v>512.0324785827329</v>
       </c>
       <c r="M42" t="n">
         <v>424.1682497333499</v>
@@ -37874,13 +37874,13 @@
         <v>389.1711085320618</v>
       </c>
       <c r="P42" t="n">
-        <v>293.4194115400333</v>
+        <v>292.815774787287</v>
       </c>
       <c r="Q42" t="n">
         <v>145.3161601965792</v>
       </c>
       <c r="R42" t="n">
-        <v>38.60926170031509</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>342.5881571247186</v>
+        <v>173.4915419526449</v>
       </c>
       <c r="K44" t="n">
         <v>635.4152894467157</v>
       </c>
       <c r="L44" t="n">
-        <v>423.4323135566426</v>
+        <v>524.6652550495091</v>
       </c>
       <c r="M44" t="n">
-        <v>503.1393662556516</v>
+        <v>952.6528997484841</v>
       </c>
       <c r="N44" t="n">
-        <v>741.8227120245126</v>
+        <v>953.2880241335363</v>
       </c>
       <c r="O44" t="n">
-        <v>854.5187705066872</v>
+        <v>473.7185892439419</v>
       </c>
       <c r="P44" t="n">
         <v>691.2570684071516</v>
       </c>
       <c r="Q44" t="n">
-        <v>441.1034927293114</v>
+        <v>228.7885020694067</v>
       </c>
       <c r="R44" t="n">
         <v>112.5290071847848</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>210.413482972172</v>
+        <v>84.32244763176314</v>
       </c>
       <c r="K45" t="n">
-        <v>262.2776595365131</v>
+        <v>223.0647610834512</v>
       </c>
       <c r="L45" t="n">
         <v>346.7285447892622</v>
@@ -38105,7 +38105,7 @@
         <v>424.1682497333499</v>
       </c>
       <c r="N45" t="n">
-        <v>449.9489079353561</v>
+        <v>615.2528417288268</v>
       </c>
       <c r="O45" t="n">
         <v>389.1711085320618</v>
